--- a/Additional Address Details.xlsx
+++ b/Additional Address Details.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tcscomprod-my.sharepoint.com/personal/1330067_tcs_com/Documents/Australia/Deloitte Applications/Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\Desktop\Visa\12-10-2021\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{377333A5-C9B6-4D0E-9F32-C0C5B06449CD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{1348DC00-73BD-45B3-B5ED-03D68C337D3F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4E83D1E7-64C6-449C-BA50-89438A0639CD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Additional Address Grid Details" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Address Grid (Please provide last 10 years staying address for self &amp; spouse)</t>
   </si>
@@ -49,12 +48,41 @@
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>Nikita Ramesh Patil</t>
+  </si>
+  <si>
+    <t>TILL NOW</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>D-43/15, N-12, Swami vivekanand Nagar, HUDCO, Aurangabad
+State:Maharashtra
+PIN:431003</t>
+  </si>
+  <si>
+    <t>Survey 193/3, suvarna Building, Shankar kalate Nagar, Wakad, Pune
+State: Maharashtra
+PIN: 411057</t>
+  </si>
+  <si>
+    <t>TCS Peepul Park Rd, Technopark Campus, Thiruvananthapuram
+State: Kerala
+PIN: 695581</t>
+  </si>
+  <si>
+    <t>Adarsh Nagar Rd, Jafrabad
+State:Maharashtra
+PIN:431206</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,17 +135,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,116 +469,167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52491733-278C-4EBB-BBFA-9EDBDE6D9505}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:H22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="29.7109375" customWidth="1"/>
     <col min="8" max="8" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="2" t="s">
+    <row r="3" spans="4:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="4:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="4" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="4:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+    <row r="5" spans="4:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6">
+        <v>43958</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6">
+        <v>42414</v>
+      </c>
+      <c r="F6" s="6">
+        <v>43957</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6">
+        <v>42295</v>
+      </c>
+      <c r="F7" s="6">
+        <v>42413</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="6">
+        <v>40734</v>
+      </c>
+      <c r="F8" s="6">
+        <v>42294</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6">
+        <v>38178</v>
+      </c>
+      <c r="F9" s="6">
+        <v>40733</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
@@ -832,18 +920,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -866,6 +954,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{347FD722-57EA-4682-9823-9354AFAFE991}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C228CA2-20EE-423A-ADD5-11E14BC92DB4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -880,12 +976,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{347FD722-57EA-4682-9823-9354AFAFE991}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>